--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xKang\Desktop\FK gate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9E4D60-2027-4728-8ABD-7C26584F12B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266C21C1-AD76-4010-BD74-D4F7611FD0C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{251C286A-A902-4228-8F13-1553287AB8B1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="131">
   <si>
     <t>Component</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Mfr. Part No.</t>
-  </si>
-  <si>
     <t>24LC256-I_P</t>
   </si>
   <si>
@@ -345,9 +342,6 @@
     <t>BYGH40</t>
   </si>
   <si>
-    <t>杜邦线接头</t>
-  </si>
-  <si>
     <t>104电容</t>
   </si>
   <si>
@@ -415,6 +409,21 @@
   </si>
   <si>
     <t>1.73/5</t>
+  </si>
+  <si>
+    <t>ArduinoISP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT232 </t>
+  </si>
+  <si>
+    <t>跳线帽</t>
+  </si>
+  <si>
+    <t>2.54MM跳线帽 2口</t>
+  </si>
+  <si>
+    <t>杜邦线接头 two Phase Stepper Motor 42mm</t>
   </si>
 </sst>
 </file>
@@ -769,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4CA0E2-E910-4334-9655-C229199235AB}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,11 +790,10 @@
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="156.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="119.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -804,730 +812,745 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1053</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1053</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>100</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21">
-        <v>1602</v>
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
+        <v>108</v>
+      </c>
+      <c r="B22">
+        <v>1602</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35">
-        <v>330</v>
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="B36">
+        <v>330</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s">
         <v>118</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
         <v>102</v>
       </c>
-      <c r="B38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" t="s">
-        <v>126</v>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" t="s">
         <v>125</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>127</v>
       </c>
     </row>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xKang\Desktop\FK gate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018000514\Desktop\fg-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266C21C1-AD76-4010-BD74-D4F7611FD0C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{251C286A-A902-4228-8F13-1553287AB8B1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -429,7 +428,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -777,11 +776,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4CA0E2-E910-4334-9655-C229199235AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018000514\Desktop\fg-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xKang\Desktop\fg\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D931B0-1926-445C-B6F0-482EF71A8DEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="161">
   <si>
     <t>Component</t>
   </si>
@@ -260,15 +262,9 @@
     <t>3-Term Fixed 5V Volt Reg 4% TS7805CZ C0 TS7805CZ C0, Voltage Regulator, 2.2A 5 V, +/-4%, 3-Pin TO-220</t>
   </si>
   <si>
-    <t>电池底座</t>
-  </si>
-  <si>
     <t>CR2450</t>
   </si>
   <si>
-    <t>接线端子</t>
-  </si>
-  <si>
     <t>KF301-4p</t>
   </si>
   <si>
@@ -329,63 +325,24 @@
     <t>MICROCHIP - ATMEGA328P-PU. - MICROCONTROLLER MCU, 8 BIT, ATMEGA, 20MHZ, DIP-28 已烧录Arduino BootLoader</t>
   </si>
   <si>
-    <t>三极管</t>
-  </si>
-  <si>
-    <t>电容</t>
-  </si>
-  <si>
-    <t>步进电机</t>
-  </si>
-  <si>
-    <t>BYGH40</t>
-  </si>
-  <si>
-    <t>104电容</t>
-  </si>
-  <si>
-    <t>电解电容</t>
-  </si>
-  <si>
     <t>杜邦2.54MM间距单排 5口公座</t>
   </si>
   <si>
     <t>IC</t>
   </si>
   <si>
-    <t>晶振</t>
-  </si>
-  <si>
-    <t>LCD模块</t>
-  </si>
-  <si>
-    <t>光敏电阻</t>
-  </si>
-  <si>
     <t>微动开关  6*6*6mm</t>
   </si>
   <si>
-    <t>电位器</t>
-  </si>
-  <si>
     <t>3362P 10KΩ</t>
   </si>
   <si>
     <t>3362P电位器103（10K）3362电位器 可调电阻 可调电位器</t>
   </si>
   <si>
-    <t>Photo电阻</t>
-  </si>
-  <si>
     <t>电阻</t>
   </si>
   <si>
-    <t>稳压器</t>
-  </si>
-  <si>
-    <t>船型开关</t>
-  </si>
-  <si>
     <t>两脚两档</t>
   </si>
   <si>
@@ -395,9 +352,6 @@
     <t>11mm</t>
   </si>
   <si>
-    <t>微动开关</t>
-  </si>
-  <si>
     <t>SOP28转接板</t>
   </si>
   <si>
@@ -416,23 +370,180 @@
     <t xml:space="preserve">FT232 </t>
   </si>
   <si>
-    <t>跳线帽</t>
-  </si>
-  <si>
-    <t>2.54MM跳线帽 2口</t>
-  </si>
-  <si>
     <t>杜邦线接头 two Phase Stepper Motor 42mm</t>
+  </si>
+  <si>
+    <t>1890-1032-ND</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>supplier</t>
+  </si>
+  <si>
+    <t>part nunber</t>
+  </si>
+  <si>
+    <t>42BYG STEPPER MOTOR</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>datasheet</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Makeblock%20PDFs/81042_Web.pdf</t>
+  </si>
+  <si>
+    <t>1890-1033-ND</t>
+  </si>
+  <si>
+    <t>MEGAPI STEPPER MOTOR DRIVER V1</t>
+  </si>
+  <si>
+    <t>296-29503-1-ND</t>
+  </si>
+  <si>
+    <t>67-1768-ND</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Makeblock%20PDFs/12035_Web.pdf</t>
+  </si>
+  <si>
+    <t>DS3231S#T&amp;RCT-ND</t>
+  </si>
+  <si>
+    <t>1528-1620-ND</t>
+  </si>
+  <si>
+    <t>DS3231 PRECISION RTC FEATHERWING</t>
+  </si>
+  <si>
+    <t>https://cdn-learn.adafruit.com/downloads/pdf/adafruit-ds3231-precision-rtc-breakout.pdf</t>
+  </si>
+  <si>
+    <t>296-13105-1-ND</t>
+  </si>
+  <si>
+    <t>part number</t>
+  </si>
+  <si>
+    <t>price(NZD)</t>
+  </si>
+  <si>
+    <t>1050-1024-ND</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Arduino%20PDFs/A000066_Web.pdf</t>
+  </si>
+  <si>
+    <t>ARDUINO UNO R3 ATMEGA328P EVAL</t>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54MM跳线帽 2口 2.54MM 2 ways jumpers </t>
+  </si>
+  <si>
+    <t>battery holder</t>
+  </si>
+  <si>
+    <t>fuse</t>
+  </si>
+  <si>
+    <t>terminal block</t>
+  </si>
+  <si>
+    <t>BJT</t>
+  </si>
+  <si>
+    <t>capacitor polarity</t>
+  </si>
+  <si>
+    <t>capacitor</t>
+  </si>
+  <si>
+    <t>104capacitor</t>
+  </si>
+  <si>
+    <t>Crystals</t>
+  </si>
+  <si>
+    <t>LCD module</t>
+  </si>
+  <si>
+    <t>Photo resistor</t>
+  </si>
+  <si>
+    <t>push button</t>
+  </si>
+  <si>
+    <t>potentiometer</t>
+  </si>
+  <si>
+    <t>resistor</t>
+  </si>
+  <si>
+    <t>rocker switch</t>
+  </si>
+  <si>
+    <t>Voltage Regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stepper Motor</t>
+  </si>
+  <si>
+    <t>BYG40</t>
+  </si>
+  <si>
+    <t>https://github.com/Arduinolibrary/DFRobot_Gravity_I2C_LCD1602_Display_module/raw/master/LCD%20Datasheet.pdf</t>
+  </si>
+  <si>
+    <t>GRAVITY: I2C LCD1602 ARDUINO LCD</t>
+  </si>
+  <si>
+    <t>1738-1411-ND</t>
+  </si>
+  <si>
+    <t>PHOTOCELL 27-60KOHM</t>
+  </si>
+  <si>
+    <t>PDV-P8104-ND</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Photonic%20Detetectors%20Inc%20PDFs/PDV-P8104.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-1409]* #,##0.00_-;\-[$$-1409]* #,##0.00_-;_-[$$-1409]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -455,16 +566,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -776,11 +895,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,10 +908,12 @@
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="119.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="119.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -809,20 +930,26 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -831,15 +958,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -853,16 +980,16 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
         <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
       </c>
       <c r="C5" s="1">
         <v>1053</v>
@@ -873,70 +1000,70 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
         <v>95</v>
       </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" t="s">
-        <v>97</v>
-      </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>78</v>
       </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -950,19 +1077,19 @@
       <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -970,13 +1097,13 @@
       <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -990,13 +1117,13 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1010,16 +1137,16 @@
       <c r="E12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -1028,15 +1155,15 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -1050,13 +1177,13 @@
       <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="F14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1071,9 +1198,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1088,9 +1215,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -1105,7 +1232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1118,13 +1245,13 @@
       <c r="E18" t="s">
         <v>29</v>
       </c>
-      <c r="F18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -1139,12 +1266,18 @@
         <v>33</v>
       </c>
       <c r="F19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="5">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -1159,32 +1292,38 @@
         <v>37</v>
       </c>
       <c r="F20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="H20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="H21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="B22">
         <v>1602</v>
@@ -1199,10 +1338,16 @@
         <v>40</v>
       </c>
       <c r="F22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="5">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="H22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1218,13 +1363,13 @@
       <c r="E23" t="s">
         <v>45</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -1239,15 +1384,18 @@
         <v>49</v>
       </c>
       <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
@@ -1258,13 +1406,13 @@
       <c r="E25" t="s">
         <v>51</v>
       </c>
-      <c r="F25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s">
         <v>52</v>
@@ -1273,18 +1421,18 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
@@ -1295,13 +1443,13 @@
       <c r="E27" t="s">
         <v>54</v>
       </c>
-      <c r="F27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
@@ -1315,13 +1463,13 @@
       <c r="E28" t="s">
         <v>56</v>
       </c>
-      <c r="F28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
@@ -1335,13 +1483,13 @@
       <c r="E29" t="s">
         <v>58</v>
       </c>
-      <c r="F29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -1355,13 +1503,13 @@
       <c r="E30" t="s">
         <v>60</v>
       </c>
-      <c r="F30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
@@ -1375,13 +1523,13 @@
       <c r="E31" t="s">
         <v>62</v>
       </c>
-      <c r="F31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
@@ -1395,13 +1543,13 @@
       <c r="E32" t="s">
         <v>63</v>
       </c>
-      <c r="F32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
@@ -1415,13 +1563,13 @@
       <c r="E33" t="s">
         <v>65</v>
       </c>
-      <c r="F33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="B34" t="s">
         <v>66</v>
@@ -1435,13 +1583,13 @@
       <c r="E34" t="s">
         <v>67</v>
       </c>
-      <c r="F34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="B35" t="s">
         <v>68</v>
@@ -1455,13 +1603,13 @@
       <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="B36">
         <v>330</v>
@@ -1475,13 +1623,13 @@
       <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -1489,13 +1637,13 @@
       <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="F37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
@@ -1509,52 +1657,206 @@
       <c r="E38" t="s">
         <v>74</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="G39" s="5">
+        <v>41.61</v>
+      </c>
+      <c r="H39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC7F777-C390-4C04-95BF-0E46842EE487}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="109.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="4">
+        <v>41.61</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="4">
+        <v>21.63</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="4">
+        <v>16.98</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="4">
+        <v>23.23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="4">
+        <v>38.93</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://media.digikey.com/pdf/Data Sheets/Makeblock PDFs/81042_Web.pdf" xr:uid="{AE05626A-7444-47D7-9583-E74A7B79929F}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{5D11F22B-5C21-420C-8D65-6A7F45E9DCF8}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{62014091-AE70-43A6-9D25-7AC8022C5EDC}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{6250AE60-0A70-4D13-97B6-9D1ACAE19BA7}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{D494B5AA-D170-4F30-BD4E-CF15BA1AAE1B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xKang\Desktop\fg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D931B0-1926-445C-B6F0-482EF71A8DEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3155B2BC-E82D-48A3-AF5B-A6A3C71EBAE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$I$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="171">
   <si>
     <t>Component</t>
   </si>
@@ -52,18 +55,12 @@
     <t>Description</t>
   </si>
   <si>
-    <t>24LC256-I_P</t>
-  </si>
-  <si>
     <t>DIP254P762X533-8</t>
   </si>
   <si>
     <t>IC6</t>
   </si>
   <si>
-    <t>Microchip 24LC256-I/P Serial EEPROM Memory, 256kbit, 900ns, 2.5 5.5 V 8-Pin PDIP</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>HC49</t>
   </si>
   <si>
-    <t>KF301-2P/3P/4P5位接线端子PCB端子5.08MM接线柱可拼接大电流插件</t>
-  </si>
-  <si>
     <t>J2</t>
   </si>
   <si>
@@ -322,57 +316,18 @@
     <t>1A</t>
   </si>
   <si>
-    <t>MICROCHIP - ATMEGA328P-PU. - MICROCONTROLLER MCU, 8 BIT, ATMEGA, 20MHZ, DIP-28 已烧录Arduino BootLoader</t>
-  </si>
-  <si>
     <t>杜邦2.54MM间距单排 5口公座</t>
   </si>
   <si>
     <t>IC</t>
   </si>
   <si>
-    <t>微动开关  6*6*6mm</t>
-  </si>
-  <si>
     <t>3362P 10KΩ</t>
   </si>
   <si>
-    <t>3362P电位器103（10K）3362电位器 可调电阻 可调电位器</t>
-  </si>
-  <si>
-    <t>电阻</t>
-  </si>
-  <si>
-    <t>两脚两档</t>
-  </si>
-  <si>
     <t>TO-92</t>
   </si>
   <si>
-    <t>11mm</t>
-  </si>
-  <si>
-    <t>SOP28转接板</t>
-  </si>
-  <si>
-    <t>SOP16转接板</t>
-  </si>
-  <si>
-    <t>3.93/5</t>
-  </si>
-  <si>
-    <t>1.73/5</t>
-  </si>
-  <si>
-    <t>ArduinoISP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT232 </t>
-  </si>
-  <si>
-    <t>杜邦线接头 two Phase Stepper Motor 42mm</t>
-  </si>
-  <si>
     <t>1890-1032-ND</t>
   </si>
   <si>
@@ -412,9 +367,6 @@
     <t>https://media.digikey.com/pdf/Data%20Sheets/Makeblock%20PDFs/12035_Web.pdf</t>
   </si>
   <si>
-    <t>DS3231S#T&amp;RCT-ND</t>
-  </si>
-  <si>
     <t>1528-1620-ND</t>
   </si>
   <si>
@@ -424,9 +376,6 @@
     <t>https://cdn-learn.adafruit.com/downloads/pdf/adafruit-ds3231-precision-rtc-breakout.pdf</t>
   </si>
   <si>
-    <t>296-13105-1-ND</t>
-  </si>
-  <si>
     <t>part number</t>
   </si>
   <si>
@@ -445,9 +394,6 @@
     <t>Jumper</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54MM跳线帽 2口 2.54MM 2 ways jumpers </t>
-  </si>
-  <si>
     <t>battery holder</t>
   </si>
   <si>
@@ -493,9 +439,6 @@
     <t>Voltage Regulator</t>
   </si>
   <si>
-    <t xml:space="preserve"> Stepper Motor</t>
-  </si>
-  <si>
     <t>BYG40</t>
   </si>
   <si>
@@ -515,6 +458,96 @@
   </si>
   <si>
     <t>https://media.digikey.com/pdf/Data%20Sheets/Photonic%20Detetectors%20Inc%20PDFs/PDV-P8104.pdf</t>
+  </si>
+  <si>
+    <t>Stepper Motor</t>
+  </si>
+  <si>
+    <t>175-6055</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>803-1093</t>
+  </si>
+  <si>
+    <t>631-1108-ND</t>
+  </si>
+  <si>
+    <t>454-179</t>
+  </si>
+  <si>
+    <t>24LC512-I_P</t>
+  </si>
+  <si>
+    <t>Microchip 24LC512-I/P Serial EEPROM Memory, 256kbit, 900ns, 2.5 5.5 V 8-Pin PDIP</t>
+  </si>
+  <si>
+    <t>131-0275</t>
+  </si>
+  <si>
+    <t>165-9743</t>
+  </si>
+  <si>
+    <t>920-3393</t>
+  </si>
+  <si>
+    <t>Pole Single</t>
+  </si>
+  <si>
+    <t>USB to UART Add On Board for FT232RL</t>
+  </si>
+  <si>
+    <t>791-6390</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>downloader</t>
+  </si>
+  <si>
+    <t>FT232RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">897-1571 </t>
+  </si>
+  <si>
+    <t>SMD Breadboard Adapter SOP28,Double Sided Extender Board Adapter Multiadapter With Adaption Circuit Board</t>
+  </si>
+  <si>
+    <t>Breadboard Adapter</t>
+  </si>
+  <si>
+    <t>two Phase Stepper Motor 42mm</t>
+  </si>
+  <si>
+    <t>398-697</t>
+  </si>
+  <si>
+    <t>11mm,Luna Optoelectronics, NSL-5152 LDR (Light Dependent Resistor) 170Ω Light, 5MΩ Dark, 2-Pin TO-18</t>
+  </si>
+  <si>
+    <t>466-1974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54MM 2 ways jumpers </t>
+  </si>
+  <si>
+    <t>KF301-4P 5.08MM terminal block</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6*6*6mm</t>
+  </si>
+  <si>
+    <t>167-3253</t>
+  </si>
+  <si>
+    <t>3362P（10K）3362</t>
+  </si>
+  <si>
+    <t>MICROCHIP - ATMEGA328P-PU. - MICROCONTROLLER MCU, 8 BIT, ATMEGA, 20MHZ, DIP-28  with Arduino BootLoader</t>
   </si>
 </sst>
 </file>
@@ -896,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,12 +941,13 @@
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="119.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="119.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -929,785 +963,887 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="5">
+        <v>41.61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="5">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5">
+        <v>1602</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="5">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="5">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.536</v>
+      </c>
+      <c r="I8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1053</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3.4540000000000002</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1053</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3.4750000000000001</v>
+      </c>
+      <c r="I11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1.85</v>
+      </c>
+      <c r="I12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="5">
+        <v>14.51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3.42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>94</v>
       </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="5">
-        <v>6</v>
-      </c>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="5">
-        <v>13.1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22">
-        <v>1602</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="F22" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="5">
-        <v>19.850000000000001</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="B29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C29" t="s">
         <v>42</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
         <v>43</v>
       </c>
-      <c r="C23" t="s">
+      <c r="I29" t="s">
         <v>44</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" t="s">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26">
+      <c r="D30">
         <v>10</v>
       </c>
-      <c r="E26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
         <v>54</v>
       </c>
-      <c r="H27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
         <v>55</v>
       </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
-      </c>
-      <c r="H34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39">
+        <v>330</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
         <v>69</v>
       </c>
-      <c r="H35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36">
-        <v>330</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="I40" t="s">
         <v>152</v>
       </c>
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" t="s">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>153</v>
-      </c>
-      <c r="B39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" s="5">
-        <v>41.61</v>
-      </c>
-      <c r="H39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>111</v>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I41">
+    <sortCondition ref="F2:F41"/>
+    <sortCondition ref="G2:G41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1717,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC7F777-C390-4C04-95BF-0E46842EE487}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" activeCellId="1" sqref="B1 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,121 +1868,121 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D2" s="4">
         <v>41.61</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D3" s="4">
         <v>21.63</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D4" s="4">
         <v>16.98</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D5" s="4">
         <v>23.23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D6" s="4">
         <v>38.93</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D7" s="4">
         <v>1.48</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xKang\Desktop\fg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3155B2BC-E82D-48A3-AF5B-A6A3C71EBAE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924EC84D-344F-4B1F-8B57-458941F91E3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="School" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$I$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$2:$I$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="213">
   <si>
     <t>Component</t>
   </si>
@@ -548,6 +549,132 @@
   </si>
   <si>
     <t>MICROCHIP - ATMEGA328P-PU. - MICROCONTROLLER MCU, 8 BIT, ATMEGA, 20MHZ, DIP-28  with Arduino BootLoader</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>www.jaycar.co.nz</t>
+  </si>
+  <si>
+    <t>XC4454</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>nz.rs-online.com</t>
+  </si>
+  <si>
+    <t>L298n</t>
+  </si>
+  <si>
+    <t>636-384 </t>
+  </si>
+  <si>
+    <t>Hall sensor</t>
+  </si>
+  <si>
+    <t>XC4434</t>
+  </si>
+  <si>
+    <t>Magnet</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>Reed Switch</t>
+  </si>
+  <si>
+    <t>361-4983</t>
+  </si>
+  <si>
+    <t>Motors</t>
+  </si>
+  <si>
+    <t>420-671</t>
+  </si>
+  <si>
+    <t>V Regulator</t>
+  </si>
+  <si>
+    <t>Light Sensor</t>
+  </si>
+  <si>
+    <t>RTC</t>
+  </si>
+  <si>
+    <t>XC4450</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>Enclosure</t>
+  </si>
+  <si>
+    <t>Shottky Diodes</t>
+  </si>
+  <si>
+    <t>628-9029</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>Current Shunt</t>
+  </si>
+  <si>
+    <t>Difference amplifier</t>
+  </si>
+  <si>
+    <t>fuse holders</t>
+  </si>
+  <si>
+    <t>176-9047</t>
+  </si>
+  <si>
+    <t>16 pin turned pin socket</t>
+  </si>
+  <si>
+    <t>674-2488</t>
+  </si>
+  <si>
+    <t>28pin turned pin Socket</t>
+  </si>
+  <si>
+    <t>674-2508</t>
+  </si>
+  <si>
+    <t>IO expander</t>
+  </si>
+  <si>
+    <t>517-0687</t>
+  </si>
+  <si>
+    <t>ON/OFF switch</t>
+  </si>
+  <si>
+    <t>Pulley</t>
+  </si>
+  <si>
+    <t>In house</t>
   </si>
 </sst>
 </file>
@@ -928,924 +1055,401 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E673A6F-0252-455D-A590-E7622BEC113F}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="119.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="5">
-        <v>41.61</v>
-      </c>
-      <c r="I2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>22.4</v>
+      </c>
+      <c r="F2">
+        <v>156.80000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F3">
+        <v>35.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>10.43</v>
+      </c>
+      <c r="F4">
+        <v>73.010000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>6.2</v>
+      </c>
+      <c r="F5">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>2.66</v>
+      </c>
+      <c r="F7">
+        <v>37.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>42.2</v>
+      </c>
+      <c r="F8">
+        <v>253.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="F9">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>1.85</v>
+      </c>
+      <c r="F10">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>5.8</v>
+      </c>
+      <c r="F11">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14">
         <v>30</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="5">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5">
-        <v>1602</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="5">
-        <v>19.850000000000001</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E14">
+        <v>0.47</v>
+      </c>
+      <c r="F14">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>11.41</v>
+      </c>
+      <c r="F18">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>14.29</v>
+      </c>
+      <c r="F19">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="5">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="I6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H7" s="5">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1.536</v>
-      </c>
-      <c r="I8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1053</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="5">
-        <v>3.4540000000000002</v>
-      </c>
-      <c r="I9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="I10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="5">
-        <v>3.4750000000000001</v>
-      </c>
-      <c r="I11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1.85</v>
-      </c>
-      <c r="I12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" t="s">
-        <v>154</v>
-      </c>
-      <c r="H13" s="5">
-        <v>14.51</v>
-      </c>
-      <c r="I13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="5">
-        <v>3.42</v>
-      </c>
-      <c r="I15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="5">
-        <v>2.02</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E20">
+        <v>1.8</v>
+      </c>
+      <c r="F20">
         <v>18</v>
       </c>
-      <c r="I19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>14.96</v>
+      </c>
+      <c r="F21">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>83</v>
-      </c>
-      <c r="I25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39">
-        <v>330</v>
-      </c>
-      <c r="C39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>69</v>
-      </c>
-      <c r="I40" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>76</v>
-      </c>
-      <c r="I41" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I41">
-    <sortCondition ref="F2:F41"/>
-    <sortCondition ref="G2:G41"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1995,4 +1599,926 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="119.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="5">
+        <v>41.61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="5">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5">
+        <v>1602</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="5">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="5">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.536</v>
+      </c>
+      <c r="I8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1053</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3.4540000000000002</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3.4750000000000001</v>
+      </c>
+      <c r="I11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1.85</v>
+      </c>
+      <c r="I12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="5">
+        <v>14.51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3.42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39">
+        <v>330</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>69</v>
+      </c>
+      <c r="I40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I41">
+    <sortCondition ref="F2:F41"/>
+    <sortCondition ref="G2:G41"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xKang\Desktop\fg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924EC84D-344F-4B1F-8B57-458941F91E3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF72D107-FBF1-49F6-B2B1-38E9E7D81FF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="765" yWindow="1380" windowWidth="28035" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="School" sheetId="4" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
